--- a/datasets/Apprehensions/Southwest Border Deaths.xlsx
+++ b/datasets/Apprehensions/Southwest Border Deaths.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47556E42-71AA-4467-85BA-3B077EF440E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +47,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Border Patrol</t>
   </si>
   <si>
     <t>Deaths</t>
@@ -97,11 +95,14 @@
       <t>(formerly McAllen)</t>
     </r>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,2433 +504,2436 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>2019</v>
+        <v>1998</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
-        <v>10</v>
+        <v>1998</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
+        <v>1998</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
+        <v>1998</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
-        <v>5</v>
+      <c r="C7" s="7">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3</v>
+        <v>1998</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
         <v>11</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>1998</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>1998</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>1999</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>1999</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>2006</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>1999</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>1999</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>2004</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>1999</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>1999</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>1999</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>2000</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>1999</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>1998</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>2000</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>14</v>
+        <v>2000</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="7">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C29" s="7">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="C30" s="7">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="C31" s="7">
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>0</v>
+        <v>2001</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="7">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>2006</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>0</v>
+        <v>2001</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C37" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39" s="7">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C40" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C41" s="7">
-        <v>29</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>0</v>
+        <v>2002</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C42" s="7">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="7">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="7">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C46" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6">
-        <v>17</v>
+        <v>2002</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C48" s="7">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C49" s="7">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C50" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C51" s="7">
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6">
-        <v>3</v>
+        <v>2003</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="6">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="7">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>1</v>
+        <v>2003</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C57" s="7">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C59" s="7">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C60" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C61" s="7">
-        <v>36</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>1</v>
+        <v>2004</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C62" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="7">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="7">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="7">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" s="7">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>1998</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>1</v>
+        <v>2004</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C67" s="7">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="6">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C68" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C69" s="7">
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="6">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C70" s="7">
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="6">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C71" s="7">
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="6">
-        <v>2</v>
+        <v>2005</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C73" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C74" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="6">
-        <v>1</v>
+      <c r="C75" s="7">
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="7">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>2</v>
+        <v>2005</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C77" s="7">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C79" s="7">
-        <v>8</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C80" s="7">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81" s="7">
-        <v>33</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>2</v>
+        <v>2006</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C82" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="7">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" s="7">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>2000</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>2</v>
+        <v>2006</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C87" s="7">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C89" s="7">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="6">
-        <v>78</v>
+        <v>6</v>
+      </c>
+      <c r="C90" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="6">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="C91" s="7">
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="6">
-        <v>84</v>
+        <v>2007</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="6">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="C93" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="6">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="6">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="C95" s="7">
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="6">
-        <v>62</v>
+      <c r="C96" s="7">
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="6">
-        <v>91</v>
+        <v>2007</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="7">
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98" s="7">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C99" s="7">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C100" s="7">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C101" s="7">
-        <v>32</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>3</v>
+        <v>2008</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C102" s="7">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C103" s="7">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="7">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>3</v>
+        <v>2008</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C107" s="7">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C109" s="7">
-        <v>47</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C110" s="7">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C111" s="7">
-        <v>20</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" s="6">
-        <v>69</v>
+        <v>2009</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="6">
-        <v>96</v>
+        <v>2009</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="7">
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="6">
-        <v>104</v>
+        <v>2009</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="7">
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="6">
-        <v>132</v>
+        <v>2009</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="6">
-        <v>97</v>
+        <v>2009</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="7">
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="6">
-        <v>116</v>
+        <v>11</v>
+      </c>
+      <c r="C117" s="7">
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="6">
-        <v>156</v>
+        <v>2009</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="6">
-        <v>144</v>
+        <v>2009</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="7">
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>12</v>
+        <v>2009</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C120" s="7">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>12</v>
+        <v>2009</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C121" s="7">
-        <v>29</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>2009</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C122" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C123" s="7">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C124" s="7">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>2006</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C125" s="7">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C126" s="7">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C128" s="7">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C129" s="7">
-        <v>30</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C130" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>2000</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>12</v>
+        <v>2010</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C131" s="7">
-        <v>40</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>1999</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>12</v>
+        <v>2011</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C132" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>1998</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>12</v>
+        <v>2011</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C133" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="6">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C134" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C135" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C136" s="7">
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="6">
-        <v>7</v>
+        <v>2011</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="7">
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C138" s="6">
-        <v>6</v>
+      <c r="C138" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="6">
         <v>5</v>
+      </c>
+      <c r="C139" s="7">
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="6">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C140" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="6">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C141" s="7">
+        <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="7">
-        <v>15</v>
+        <v>2012</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="7">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C143" s="6">
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="7">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C144" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="7">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="C145" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="7">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C146" s="6">
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>2006</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="7">
-        <v>36</v>
+        <v>2012</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="6">
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="7">
-        <v>23</v>
+      <c r="C148" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="7">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C149" s="6">
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="7">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="C150" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C151" s="7">
-        <v>24</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>2001</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="7">
-        <v>21</v>
+        <v>2013</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="7">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="C153" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="7">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C154" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="7">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="C155" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C156" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>5</v>
+        <v>2013</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C157" s="6">
-        <v>58</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158" s="6">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C159" s="6">
-        <v>84</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" s="6">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" s="6">
-        <v>107</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B162" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="6">
         <v>5</v>
-      </c>
-      <c r="C162" s="6">
-        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C163" s="6">
-        <v>180</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="7">
-        <v>195</v>
+        <v>1</v>
+      </c>
+      <c r="C164" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" s="7">
-        <v>251</v>
+        <v>2</v>
+      </c>
+      <c r="C165" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="7">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="C166" s="6">
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <v>2008</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="7">
-        <v>171</v>
+        <v>2014</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="6">
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="6">
         <v>5</v>
-      </c>
-      <c r="C168" s="7">
-        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C169" s="7">
-        <v>169</v>
+      <c r="C169" s="6">
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="7">
-        <v>219</v>
+        <v>6</v>
+      </c>
+      <c r="C170" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="7">
-        <v>142</v>
+        <v>7</v>
+      </c>
+      <c r="C171" s="6">
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <v>2003</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="7">
-        <v>137</v>
+        <v>2015</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="7">
-        <v>134</v>
+        <v>0</v>
+      </c>
+      <c r="C173" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="7">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="C174" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="7">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="C175" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="7">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="C176" s="6">
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>1998</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="C177" s="6">
+        <v>97</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B178" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="6">
         <v>6</v>
-      </c>
-      <c r="C178" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" s="6">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" s="6">
-        <v>7</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>6</v>
+        <v>2016</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C182" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C183" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C184" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B185" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="6">
         <v>6</v>
-      </c>
-      <c r="C185" s="6">
-        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="7">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C186" s="6">
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" s="7">
-        <v>1</v>
+        <v>2016</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="6">
+        <v>132</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="7">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C188" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="7">
         <v>5</v>
+      </c>
+      <c r="C189" s="6">
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C190" s="7">
-        <v>11</v>
+      <c r="C190" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" s="7">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="C191" s="6">
+        <v>329</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" s="7">
-        <v>52</v>
+        <v>2017</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" s="7">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="C193" s="6">
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="7">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C194" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" s="7">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C195" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="7">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C196" s="6">
+        <v>84</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <v>2000</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" s="7">
-        <v>36</v>
+        <v>2017</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="6">
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" s="7">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="C198" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" s="7">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C199" s="6">
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" s="6">
-        <v>300</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C201" s="6">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>7</v>
+        <v>2018</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C202" s="6">
-        <v>298</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C203" s="6">
-        <v>329</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C204" s="6">
-        <v>251</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C205" s="6">
-        <v>315</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C206" s="6">
-        <v>451</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" s="7">
-        <v>471</v>
+        <v>2018</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="6">
+        <v>96</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" s="7">
-        <v>375</v>
+        <v>4</v>
+      </c>
+      <c r="C208" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" s="7">
-        <v>365</v>
+        <v>5</v>
+      </c>
+      <c r="C209" s="6">
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="7">
-        <v>420</v>
+        <v>6</v>
+      </c>
+      <c r="C210" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C211" s="7">
-        <v>385</v>
+      <c r="C211" s="6">
+        <v>283</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" s="7">
-        <v>398</v>
+        <v>2019</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" s="7">
-        <v>454</v>
+        <v>0</v>
+      </c>
+      <c r="C213" s="6">
+        <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" s="7">
-        <v>492</v>
+        <v>1</v>
+      </c>
+      <c r="C214" s="6">
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="7">
-        <v>328</v>
+        <v>2</v>
+      </c>
+      <c r="C215" s="6">
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="7">
-        <v>338</v>
+        <v>3</v>
+      </c>
+      <c r="C216" s="6">
+        <v>78</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
-        <v>2002</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="7">
-        <v>320</v>
+        <v>2019</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="6">
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="B218" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="6">
         <v>7</v>
-      </c>
-      <c r="C218" s="7">
-        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="7">
-        <v>380</v>
+        <v>5</v>
+      </c>
+      <c r="C219" s="6">
+        <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="B220" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="6">
         <v>7</v>
-      </c>
-      <c r="C220" s="7">
-        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C221" s="7">
-        <v>263</v>
+      <c r="C221" s="6">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C221">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
